--- a/programs/web/assginment/pre-assessment.xlsx
+++ b/programs/web/assginment/pre-assessment.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2024\ise\mern\workshop\programs\web\assginment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F835842-E685-416B-B030-47C64679CA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295E141D-1D31-4DFE-8C08-7E17CEFF1087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{E8DD7EF8-AA40-496D-B966-883784F85839}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E8DD7EF8-AA40-496D-B966-883784F85839}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Simple Calculator</t>
   </si>
@@ -106,6 +107,21 @@
   </si>
   <si>
     <t>Executive</t>
+  </si>
+  <si>
+    <t>Electricity Bill Calculator</t>
+  </si>
+  <si>
+    <t>Enter Units Consumed</t>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Calculate Bill&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your bill amount is </t>
   </si>
 </sst>
 </file>
@@ -499,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CCC868-C0D0-481F-B377-9CD32993A91A}">
   <dimension ref="E1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -677,4 +693,49 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A54D5D-F9DC-401C-B296-FAC484DE579F}">
+  <dimension ref="F2:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="238" zoomScaleNormal="238" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/programs/web/assginment/pre-assessment.xlsx
+++ b/programs/web/assginment/pre-assessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2024\ise\mern\workshop\programs\web\assginment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295E141D-1D31-4DFE-8C08-7E17CEFF1087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94D7C74-D668-4776-BF4E-FD68042AC6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E8DD7EF8-AA40-496D-B966-883784F85839}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8DD7EF8-AA40-496D-B966-883784F85839}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CCC868-C0D0-481F-B377-9CD32993A91A}">
   <dimension ref="E1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A54D5D-F9DC-401C-B296-FAC484DE579F}">
   <dimension ref="F2:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="238" zoomScaleNormal="238" workbookViewId="0">
+    <sheetView zoomScale="238" zoomScaleNormal="238" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/programs/web/assginment/pre-assessment.xlsx
+++ b/programs/web/assginment/pre-assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2024\ise\mern\workshop\programs\web\assginment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94D7C74-D668-4776-BF4E-FD68042AC6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C9772B-7DF6-4574-B8BC-C352DDFA1451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8DD7EF8-AA40-496D-B966-883784F85839}"/>
   </bookViews>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CCC868-C0D0-481F-B377-9CD32993A91A}">
   <dimension ref="E1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/programs/web/assginment/pre-assessment.xlsx
+++ b/programs/web/assginment/pre-assessment.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2024\ise\mern\workshop\programs\web\assginment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C9772B-7DF6-4574-B8BC-C352DDFA1451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6C3570-718F-4F31-BA13-CDFCE93342DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8DD7EF8-AA40-496D-B966-883784F85839}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E8DD7EF8-AA40-496D-B966-883784F85839}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>Simple Calculator</t>
   </si>
@@ -122,6 +123,33 @@
   </si>
   <si>
     <t xml:space="preserve">Your bill amount is </t>
+  </si>
+  <si>
+    <t>IPL Master</t>
+  </si>
+  <si>
+    <t>Team Code</t>
+  </si>
+  <si>
+    <t>Matches</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Lost</t>
+  </si>
+  <si>
+    <t>Netrun rate</t>
+  </si>
+  <si>
+    <t>&lt;Add Team&gt;</t>
+  </si>
+  <si>
+    <t>&lt;List Team&gt;</t>
+  </si>
+  <si>
+    <t>Points</t>
   </si>
 </sst>
 </file>
@@ -192,13 +220,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -214,6 +243,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>229718</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>105534</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7129B228-EE43-E151-0B2E-DD5D2B9C5A48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="3238500"/>
+          <a:ext cx="8011643" cy="5439534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -515,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CCC868-C0D0-481F-B377-9CD32993A91A}">
   <dimension ref="E1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -738,4 +816,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216A962C-985A-4AC8-8361-25A092B71DED}">
+  <dimension ref="H4:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="I4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/programs/web/assginment/pre-assessment.xlsx
+++ b/programs/web/assginment/pre-assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2024\ise\mern\workshop\programs\web\assginment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6C3570-718F-4F31-BA13-CDFCE93342DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED549E1-AC4E-4C2B-BF67-1BD5244E8244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E8DD7EF8-AA40-496D-B966-883784F85839}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>Simple Calculator</t>
   </si>
@@ -150,6 +150,27 @@
   </si>
   <si>
     <t>Points</t>
+  </si>
+  <si>
+    <t>Net Run Rate</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>KKR</t>
+  </si>
+  <si>
+    <t>&lt;Delete Button&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Edit Button&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Update Team&gt;</t>
   </si>
 </sst>
 </file>
@@ -255,8 +276,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>229718</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457780</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>105534</xdr:rowOff>
     </xdr:to>
@@ -820,25 +841,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216A962C-985A-4AC8-8361-25A092B71DED}">
-  <dimension ref="H4:J12"/>
+  <dimension ref="F4:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="6:14" x14ac:dyDescent="0.25">
       <c r="I4" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:14" x14ac:dyDescent="0.25">
       <c r="H5" s="3" t="s">
         <v>30</v>
       </c>
@@ -846,7 +871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="6:14" x14ac:dyDescent="0.25">
       <c r="H6" s="3" t="s">
         <v>11</v>
       </c>
@@ -854,7 +879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:14" x14ac:dyDescent="0.25">
       <c r="H7" s="3" t="s">
         <v>31</v>
       </c>
@@ -862,7 +887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="6:14" x14ac:dyDescent="0.25">
       <c r="H8" s="3" t="s">
         <v>32</v>
       </c>
@@ -870,7 +895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="6:14" x14ac:dyDescent="0.25">
       <c r="H9" s="3" t="s">
         <v>33</v>
       </c>
@@ -878,7 +903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="6:14" x14ac:dyDescent="0.25">
       <c r="H10" s="3" t="s">
         <v>34</v>
       </c>
@@ -886,7 +911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="6:14" x14ac:dyDescent="0.25">
       <c r="H11" s="3" t="s">
         <v>37</v>
       </c>
@@ -894,12 +919,73 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="6:14" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>36</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>1.4279999999999999</v>
+      </c>
+      <c r="L15">
+        <v>20</v>
+      </c>
+      <c r="M15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/programs/web/assginment/pre-assessment.xlsx
+++ b/programs/web/assginment/pre-assessment.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2024\ise\mern\workshop\programs\web\assginment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED549E1-AC4E-4C2B-BF67-1BD5244E8244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9F860D-D4D0-4D4A-A39C-ED2C21E6A639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E8DD7EF8-AA40-496D-B966-883784F85839}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E8DD7EF8-AA40-496D-B966-883784F85839}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
   <si>
     <t>Simple Calculator</t>
   </si>
@@ -171,6 +172,21 @@
   </si>
   <si>
     <t>&lt;Update Team&gt;</t>
+  </si>
+  <si>
+    <t>Simple Interest</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Time in Years</t>
+  </si>
+  <si>
+    <t>Calculate</t>
   </si>
 </sst>
 </file>
@@ -615,7 +631,7 @@
   <dimension ref="E1:M11"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216A962C-985A-4AC8-8361-25A092B71DED}">
   <dimension ref="F4:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -992,4 +1008,64 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F68C20-E9DC-4B7D-8A7E-458BC6D67634}">
+  <dimension ref="E2:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/programs/web/assginment/pre-assessment.xlsx
+++ b/programs/web/assginment/pre-assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2024\ise\mern\workshop\programs\web\assginment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9F860D-D4D0-4D4A-A39C-ED2C21E6A639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B555DEB5-299A-42CA-8021-28F0BFF5A53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E8DD7EF8-AA40-496D-B966-883784F85839}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>Simple Calculator</t>
   </si>
@@ -187,6 +187,48 @@
   </si>
   <si>
     <t>Calculate</t>
+  </si>
+  <si>
+    <t>Counter</t>
+  </si>
+  <si>
+    <t>&lt;+&gt;</t>
+  </si>
+  <si>
+    <t>&lt;-&gt;</t>
+  </si>
+  <si>
+    <t>First Number</t>
+  </si>
+  <si>
+    <t>Opertor</t>
+  </si>
+  <si>
+    <t>+,-,*,/'</t>
+  </si>
+  <si>
+    <t>Second Number</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">equla to </t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>plus</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -210,7 +252,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +268,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -265,6 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1012,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F68C20-E9DC-4B7D-8A7E-458BC6D67634}">
-  <dimension ref="E2:F8"/>
+  <dimension ref="E2:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,12 +1072,15 @@
     <col min="5" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>46</v>
       </c>
@@ -1036,15 +1088,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>47</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>48</v>
       </c>
@@ -1052,17 +1110,102 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F7" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>45</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/programs/web/assginment/pre-assessment.xlsx
+++ b/programs/web/assginment/pre-assessment.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2024\ise\mern\workshop\programs\web\assginment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B555DEB5-299A-42CA-8021-28F0BFF5A53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834D6676-5D46-4EBC-951B-63717F460F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E8DD7EF8-AA40-496D-B966-883784F85839}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{E8DD7EF8-AA40-496D-B966-883784F85839}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
   <si>
     <t>Simple Calculator</t>
   </si>
@@ -229,6 +230,27 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>Posts</t>
+  </si>
+  <si>
+    <t>https://jsonplaceholder.typicode.com/posts</t>
+  </si>
+  <si>
+    <t>User Id</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>In tile and body only display 10 char</t>
   </si>
 </sst>
 </file>
@@ -252,7 +274,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +296,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -314,6 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1063,7 +1092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F68C20-E9DC-4B7D-8A7E-458BC6D67634}">
   <dimension ref="E2:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1211,4 +1240,59 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE7D317-E390-433C-8CEE-1AFE21D3073C}">
+  <dimension ref="D2:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="41.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/programs/web/assginment/pre-assessment.xlsx
+++ b/programs/web/assginment/pre-assessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2024\ise\mern\workshop\programs\web\assginment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834D6676-5D46-4EBC-951B-63717F460F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A995227F-A708-4EF7-A241-62385CF42BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{E8DD7EF8-AA40-496D-B966-883784F85839}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{E8DD7EF8-AA40-496D-B966-883784F85839}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
   <si>
     <t>Simple Calculator</t>
   </si>
@@ -251,13 +252,79 @@
   </si>
   <si>
     <t>In tile and body only display 10 char</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Sign Up</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Contact Us</t>
+  </si>
+  <si>
+    <t>Welcome to eCom App</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>&lt;Sign Up&gt;</t>
+  </si>
+  <si>
+    <t>Backend api</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/users</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Save User</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/userslogin</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +336,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -330,10 +405,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -343,8 +419,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1246,7 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE7D317-E390-433C-8CEE-1AFE21D3073C}">
   <dimension ref="D2:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+    <sheetView zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1295,4 +1373,163 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F98014E-0E07-4A38-9D92-4F7A677BDAFB}">
+  <dimension ref="E3:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L6" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G17" r:id="rId1" xr:uid="{BAA28BC2-9B62-49AF-9680-4CF91B992188}"/>
+    <hyperlink ref="G21" r:id="rId2" xr:uid="{13AB4B79-BD2E-440A-99AC-1DB9EBB964B2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/programs/web/assginment/pre-assessment.xlsx
+++ b/programs/web/assginment/pre-assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2024\ise\mern\workshop\programs\web\assginment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A995227F-A708-4EF7-A241-62385CF42BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355E91F1-AAB4-444B-A9DB-F76F0FF921C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{E8DD7EF8-AA40-496D-B966-883784F85839}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="103">
   <si>
     <t>Simple Calculator</t>
   </si>
@@ -318,6 +318,36 @@
   </si>
   <si>
     <t>Member</t>
+  </si>
+  <si>
+    <t>Display Products by taking from products collection</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>&lt;Add To Cart&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Cart&gt;</t>
+  </si>
+  <si>
+    <t>On click of the cart display items in the cart</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -409,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -420,6 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1377,10 +1408,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F98014E-0E07-4A38-9D92-4F7A677BDAFB}">
-  <dimension ref="E3:L28"/>
+  <dimension ref="E3:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,6 +1556,86 @@
         <v>91</v>
       </c>
     </row>
+    <row r="31" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F35" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>96</v>
+      </c>
+      <c r="G43">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="44" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="45" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>102</v>
+      </c>
+      <c r="G45">
+        <v>130000</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G17" r:id="rId1" xr:uid="{BAA28BC2-9B62-49AF-9680-4CF91B992188}"/>
